--- a/Training/Puntuaciones_Training.xlsx
+++ b/Training/Puntuaciones_Training.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyectos\Hackathon\AIMicroscopyGAeN\Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85950DD-E134-44DA-99F5-90B2A50359CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E32C2BD-307F-438F-AA79-D64BBCF07179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{606D86BA-C895-4B45-A595-D08AA603E08F}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{606D86BA-C895-4B45-A595-D08AA603E08F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="141">
   <si>
     <t>Bien</t>
   </si>
@@ -466,6 +466,21 @@
   </si>
   <si>
     <t>np.where</t>
+  </si>
+  <si>
+    <t>img_0101</t>
+  </si>
+  <si>
+    <t>img_0102</t>
+  </si>
+  <si>
+    <t>img_0103</t>
+  </si>
+  <si>
+    <t>detecta todo con margen</t>
+  </si>
+  <si>
+    <t>detecta todo más preciso</t>
   </si>
 </sst>
 </file>
@@ -851,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15280727-35AF-40AD-B7BA-5A42B1A90BBF}">
-  <dimension ref="A5:V118"/>
+  <dimension ref="A5:V237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="C110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O130" sqref="O130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5951,7 +5966,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="113" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K113">
         <v>2</v>
       </c>
@@ -5962,7 +5977,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K115">
         <v>4</v>
       </c>
@@ -5973,7 +5988,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="116" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K116">
         <v>7</v>
       </c>
@@ -5984,7 +5999,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="117" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K117">
         <v>8</v>
       </c>
@@ -5995,7 +6010,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="118" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K118">
         <v>9</v>
       </c>
@@ -6003,6 +6018,1363 @@
         <v>44</v>
       </c>
       <c r="U118" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s">
+        <v>140</v>
+      </c>
+      <c r="F124" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124" t="s">
+        <v>10</v>
+      </c>
+      <c r="H124" t="s">
+        <v>11</v>
+      </c>
+      <c r="I124" t="s">
+        <v>12</v>
+      </c>
+      <c r="J124" t="s">
+        <v>13</v>
+      </c>
+      <c r="K124" t="s">
+        <v>14</v>
+      </c>
+      <c r="L124" t="s">
+        <v>15</v>
+      </c>
+      <c r="M124" t="s">
+        <v>16</v>
+      </c>
+      <c r="N124" t="s">
+        <v>17</v>
+      </c>
+      <c r="O124" t="s">
+        <v>18</v>
+      </c>
+      <c r="T124" t="s">
+        <v>12</v>
+      </c>
+      <c r="U124" t="s">
+        <v>15</v>
+      </c>
+      <c r="V124" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>10</v>
+      </c>
+      <c r="C125" t="s">
+        <v>139</v>
+      </c>
+      <c r="E125" t="s">
+        <v>28</v>
+      </c>
+      <c r="F125" t="s">
+        <v>5</v>
+      </c>
+      <c r="G125" t="s">
+        <v>5</v>
+      </c>
+      <c r="H125" t="s">
+        <v>3</v>
+      </c>
+      <c r="I125" t="s">
+        <v>5</v>
+      </c>
+      <c r="J125" t="s">
+        <v>0</v>
+      </c>
+      <c r="K125" t="s">
+        <v>5</v>
+      </c>
+      <c r="L125" t="s">
+        <v>5</v>
+      </c>
+      <c r="M125" t="s">
+        <v>5</v>
+      </c>
+      <c r="N125" t="s">
+        <v>0</v>
+      </c>
+      <c r="O125" t="s">
+        <v>0</v>
+      </c>
+      <c r="S125" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126">
+        <v>8</v>
+      </c>
+      <c r="C126" t="s">
+        <v>26</v>
+      </c>
+      <c r="E126" t="s">
+        <v>29</v>
+      </c>
+      <c r="F126" t="s">
+        <v>5</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1</v>
+      </c>
+      <c r="H126" t="s">
+        <v>1</v>
+      </c>
+      <c r="I126" t="s">
+        <v>1</v>
+      </c>
+      <c r="J126" t="s">
+        <v>1</v>
+      </c>
+      <c r="K126" t="s">
+        <v>0</v>
+      </c>
+      <c r="L126" t="s">
+        <v>1</v>
+      </c>
+      <c r="M126" t="s">
+        <v>1</v>
+      </c>
+      <c r="N126" t="s">
+        <v>1</v>
+      </c>
+      <c r="O126" t="s">
+        <v>1</v>
+      </c>
+      <c r="S126" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127" t="s">
+        <v>30</v>
+      </c>
+      <c r="F127" t="s">
+        <v>5</v>
+      </c>
+      <c r="G127" t="s">
+        <v>1</v>
+      </c>
+      <c r="H127" t="s">
+        <v>7</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J127" t="s">
+        <v>1</v>
+      </c>
+      <c r="K127" t="s">
+        <v>1</v>
+      </c>
+      <c r="L127" t="s">
+        <v>1</v>
+      </c>
+      <c r="M127" t="s">
+        <v>1</v>
+      </c>
+      <c r="N127" t="s">
+        <v>1</v>
+      </c>
+      <c r="O127" t="s">
+        <v>1</v>
+      </c>
+      <c r="S127" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" t="s">
+        <v>31</v>
+      </c>
+      <c r="F128" t="s">
+        <v>5</v>
+      </c>
+      <c r="G128" t="s">
+        <v>1</v>
+      </c>
+      <c r="H128" t="s">
+        <v>3</v>
+      </c>
+      <c r="I128" t="s">
+        <v>1</v>
+      </c>
+      <c r="J128" t="s">
+        <v>1</v>
+      </c>
+      <c r="K128" t="s">
+        <v>1</v>
+      </c>
+      <c r="L128" t="s">
+        <v>1</v>
+      </c>
+      <c r="M128" t="s">
+        <v>1</v>
+      </c>
+      <c r="N128" t="s">
+        <v>1</v>
+      </c>
+      <c r="O128" t="s">
+        <v>0</v>
+      </c>
+      <c r="S128" t="s">
+        <v>31</v>
+      </c>
+      <c r="T128" s="2"/>
+      <c r="U128" s="2"/>
+      <c r="V128" s="2"/>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>32</v>
+      </c>
+      <c r="F129" t="s">
+        <v>5</v>
+      </c>
+      <c r="G129" t="s">
+        <v>1</v>
+      </c>
+      <c r="H129" t="s">
+        <v>3</v>
+      </c>
+      <c r="I129" t="s">
+        <v>1</v>
+      </c>
+      <c r="J129" t="s">
+        <v>1</v>
+      </c>
+      <c r="K129" t="s">
+        <v>5</v>
+      </c>
+      <c r="L129" t="s">
+        <v>1</v>
+      </c>
+      <c r="M129" t="s">
+        <v>1</v>
+      </c>
+      <c r="N129" t="s">
+        <v>1</v>
+      </c>
+      <c r="O129" t="s">
+        <v>1</v>
+      </c>
+      <c r="S129" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>33</v>
+      </c>
+      <c r="F130" t="s">
+        <v>5</v>
+      </c>
+      <c r="S130" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E131" t="s">
+        <v>34</v>
+      </c>
+      <c r="F131" t="s">
+        <v>5</v>
+      </c>
+      <c r="S131" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>20</v>
+      </c>
+      <c r="F132" t="s">
+        <v>5</v>
+      </c>
+      <c r="S132" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>35</v>
+      </c>
+      <c r="F133" t="s">
+        <v>5</v>
+      </c>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="S133" t="s">
+        <v>35</v>
+      </c>
+      <c r="T133" s="1"/>
+      <c r="U133" s="1"/>
+      <c r="V133" s="1"/>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
+        <v>36</v>
+      </c>
+      <c r="F134" t="s">
+        <v>5</v>
+      </c>
+      <c r="S134" t="s">
+        <v>36</v>
+      </c>
+      <c r="T134" s="2"/>
+      <c r="U134" s="2"/>
+      <c r="V134" s="2"/>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
+        <v>37</v>
+      </c>
+      <c r="F135" t="s">
+        <v>5</v>
+      </c>
+      <c r="S135" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>38</v>
+      </c>
+      <c r="F136" t="s">
+        <v>5</v>
+      </c>
+      <c r="S136" t="s">
+        <v>38</v>
+      </c>
+      <c r="T136" s="2"/>
+      <c r="U136" s="2"/>
+      <c r="V136" s="2"/>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>39</v>
+      </c>
+      <c r="F137" t="s">
+        <v>5</v>
+      </c>
+      <c r="S137" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E138" t="s">
+        <v>40</v>
+      </c>
+      <c r="F138" t="s">
+        <v>5</v>
+      </c>
+      <c r="S138" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="E139" t="s">
+        <v>41</v>
+      </c>
+      <c r="F139" t="s">
+        <v>5</v>
+      </c>
+      <c r="S139" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="E140" t="s">
+        <v>42</v>
+      </c>
+      <c r="F140" t="s">
+        <v>5</v>
+      </c>
+      <c r="S140" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>43</v>
+      </c>
+      <c r="F141" t="s">
+        <v>5</v>
+      </c>
+      <c r="S141" t="s">
+        <v>43</v>
+      </c>
+      <c r="T141" s="2"/>
+      <c r="U141" s="2"/>
+      <c r="V141" s="2"/>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>46</v>
+      </c>
+      <c r="F142" t="s">
+        <v>5</v>
+      </c>
+      <c r="S142" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143">
+        <v>-1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>47</v>
+      </c>
+      <c r="F143" t="s">
+        <v>5</v>
+      </c>
+      <c r="S143" t="s">
+        <v>47</v>
+      </c>
+      <c r="T143" s="2"/>
+      <c r="U143" s="2"/>
+      <c r="V143" s="2"/>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
+        <v>48</v>
+      </c>
+      <c r="S144" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="145" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E145" t="s">
+        <v>49</v>
+      </c>
+      <c r="S145" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="146" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>133</v>
+      </c>
+      <c r="E146" t="s">
+        <v>50</v>
+      </c>
+      <c r="S146" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>129</v>
+      </c>
+      <c r="E147" t="s">
+        <v>51</v>
+      </c>
+      <c r="S147" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="148" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>130</v>
+      </c>
+      <c r="E148" t="s">
+        <v>52</v>
+      </c>
+      <c r="S148" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="149" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>131</v>
+      </c>
+      <c r="E149" t="s">
+        <v>53</v>
+      </c>
+      <c r="S149" t="s">
+        <v>53</v>
+      </c>
+      <c r="T149" s="2"/>
+      <c r="U149" s="2"/>
+      <c r="V149" s="2"/>
+    </row>
+    <row r="150" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>132</v>
+      </c>
+      <c r="E150" t="s">
+        <v>54</v>
+      </c>
+      <c r="S150" t="s">
+        <v>54</v>
+      </c>
+      <c r="T150" s="2"/>
+      <c r="U150" s="2"/>
+      <c r="V150" s="2"/>
+    </row>
+    <row r="151" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E151" t="s">
+        <v>55</v>
+      </c>
+      <c r="S151" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="152" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>134</v>
+      </c>
+      <c r="E152" t="s">
+        <v>56</v>
+      </c>
+      <c r="S152" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="153" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>135</v>
+      </c>
+      <c r="E153" t="s">
+        <v>19</v>
+      </c>
+      <c r="S153" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E154" t="s">
+        <v>57</v>
+      </c>
+      <c r="S154" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="155" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E155" t="s">
+        <v>58</v>
+      </c>
+      <c r="S155" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="156" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E156" t="s">
+        <v>59</v>
+      </c>
+      <c r="S156" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="157" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E157" t="s">
+        <v>60</v>
+      </c>
+      <c r="S157" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="158" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E158" t="s">
+        <v>61</v>
+      </c>
+      <c r="S158" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="159" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E159" t="s">
+        <v>62</v>
+      </c>
+      <c r="S159" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="160" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E160" t="s">
+        <v>63</v>
+      </c>
+      <c r="S160" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="161" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E161" t="s">
+        <v>64</v>
+      </c>
+      <c r="S161" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="162" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E162" t="s">
+        <v>65</v>
+      </c>
+      <c r="S162" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="163" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E163" t="s">
+        <v>66</v>
+      </c>
+      <c r="S163" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="164" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E164" t="s">
+        <v>67</v>
+      </c>
+      <c r="S164" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="165" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E165" t="s">
+        <v>68</v>
+      </c>
+      <c r="S165" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="166" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E166" t="s">
+        <v>69</v>
+      </c>
+      <c r="S166" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="167" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E167" t="s">
+        <v>70</v>
+      </c>
+      <c r="S167" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="168" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E168" t="s">
+        <v>71</v>
+      </c>
+      <c r="S168" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="169" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E169" t="s">
+        <v>72</v>
+      </c>
+      <c r="S169" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="170" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E170" t="s">
+        <v>73</v>
+      </c>
+      <c r="S170" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="171" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E171" t="s">
+        <v>74</v>
+      </c>
+      <c r="S171" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="172" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E172" t="s">
+        <v>75</v>
+      </c>
+      <c r="S172" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="173" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E173" t="s">
+        <v>21</v>
+      </c>
+      <c r="S173" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="174" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E174" t="s">
+        <v>76</v>
+      </c>
+      <c r="S174" t="s">
+        <v>76</v>
+      </c>
+      <c r="T174" s="2"/>
+      <c r="U174" s="2"/>
+      <c r="V174" s="2"/>
+    </row>
+    <row r="175" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E175" t="s">
+        <v>77</v>
+      </c>
+      <c r="S175" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="176" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E176" t="s">
+        <v>78</v>
+      </c>
+      <c r="S176" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="177" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E177" t="s">
+        <v>79</v>
+      </c>
+      <c r="S177" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="178" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E178" t="s">
+        <v>80</v>
+      </c>
+      <c r="S178" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="179" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E179" t="s">
+        <v>81</v>
+      </c>
+      <c r="S179" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="180" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E180" t="s">
+        <v>22</v>
+      </c>
+      <c r="S180" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E181" t="s">
+        <v>82</v>
+      </c>
+      <c r="S181" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="182" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E182" t="s">
+        <v>83</v>
+      </c>
+      <c r="S182" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="183" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E183" t="s">
+        <v>84</v>
+      </c>
+      <c r="S183" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="184" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E184" t="s">
+        <v>85</v>
+      </c>
+      <c r="S184" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="185" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E185" t="s">
+        <v>86</v>
+      </c>
+      <c r="S185" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="186" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E186" t="s">
+        <v>87</v>
+      </c>
+      <c r="S186" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="187" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E187" t="s">
+        <v>88</v>
+      </c>
+      <c r="S187" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="188" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E188" t="s">
+        <v>89</v>
+      </c>
+      <c r="S188" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="189" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E189" t="s">
+        <v>90</v>
+      </c>
+      <c r="S189" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="190" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E190" t="s">
+        <v>91</v>
+      </c>
+      <c r="S190" t="s">
+        <v>91</v>
+      </c>
+      <c r="T190" s="2"/>
+      <c r="U190" s="2"/>
+      <c r="V190" s="2"/>
+    </row>
+    <row r="191" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E191" t="s">
+        <v>92</v>
+      </c>
+      <c r="S191" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="192" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E192" t="s">
+        <v>93</v>
+      </c>
+      <c r="S192" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="193" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E193" t="s">
+        <v>94</v>
+      </c>
+      <c r="S193" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="194" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E194" t="s">
+        <v>97</v>
+      </c>
+      <c r="S194" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="195" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E195" t="s">
+        <v>98</v>
+      </c>
+      <c r="S195" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="196" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E196" t="s">
+        <v>99</v>
+      </c>
+      <c r="S196" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="197" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E197" t="s">
+        <v>100</v>
+      </c>
+      <c r="S197" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="198" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E198" t="s">
+        <v>101</v>
+      </c>
+      <c r="S198" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="199" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E199" t="s">
+        <v>102</v>
+      </c>
+      <c r="S199" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="200" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E200" t="s">
+        <v>103</v>
+      </c>
+      <c r="S200" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="201" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E201" t="s">
+        <v>104</v>
+      </c>
+      <c r="S201" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="202" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E202" t="s">
+        <v>105</v>
+      </c>
+      <c r="S202" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="203" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E203" t="s">
+        <v>106</v>
+      </c>
+      <c r="S203" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="204" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E204" t="s">
+        <v>107</v>
+      </c>
+      <c r="S204" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="205" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E205" t="s">
+        <v>108</v>
+      </c>
+      <c r="S205" t="s">
+        <v>108</v>
+      </c>
+      <c r="T205" s="2"/>
+      <c r="U205" s="2"/>
+      <c r="V205" s="2"/>
+    </row>
+    <row r="206" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E206" t="s">
+        <v>109</v>
+      </c>
+      <c r="S206" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="207" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E207" t="s">
+        <v>110</v>
+      </c>
+      <c r="S207" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="208" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E208" t="s">
+        <v>111</v>
+      </c>
+      <c r="S208" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="209" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E209" t="s">
+        <v>112</v>
+      </c>
+      <c r="S209" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="210" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E210" t="s">
+        <v>113</v>
+      </c>
+      <c r="S210" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="211" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E211" t="s">
+        <v>114</v>
+      </c>
+      <c r="S211" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="212" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E212" t="s">
+        <v>115</v>
+      </c>
+      <c r="S212" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="213" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E213" t="s">
+        <v>116</v>
+      </c>
+      <c r="S213" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="214" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E214" t="s">
+        <v>117</v>
+      </c>
+      <c r="S214" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="215" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E215" t="s">
+        <v>118</v>
+      </c>
+      <c r="S215" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="216" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E216" t="s">
+        <v>23</v>
+      </c>
+      <c r="S216" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="217" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E217" t="s">
+        <v>119</v>
+      </c>
+      <c r="S217" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="218" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E218" t="s">
+        <v>120</v>
+      </c>
+      <c r="S218" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="219" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E219" t="s">
+        <v>121</v>
+      </c>
+      <c r="S219" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="220" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E220" t="s">
+        <v>122</v>
+      </c>
+      <c r="S220" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="221" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E221" t="s">
+        <v>123</v>
+      </c>
+      <c r="S221" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="222" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E222" t="s">
+        <v>124</v>
+      </c>
+      <c r="S222" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="223" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E223" t="s">
+        <v>125</v>
+      </c>
+      <c r="S223" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="224" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E224" t="s">
+        <v>126</v>
+      </c>
+      <c r="S224" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="225" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E225" t="s">
+        <v>136</v>
+      </c>
+      <c r="S225" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="226" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E226" t="s">
+        <v>137</v>
+      </c>
+      <c r="S226" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="227" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E227" t="s">
+        <v>138</v>
+      </c>
+      <c r="S227" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="229" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E229" t="s">
+        <v>128</v>
+      </c>
+      <c r="F229">
+        <v>100</v>
+      </c>
+      <c r="G229">
+        <v>200</v>
+      </c>
+      <c r="H229">
+        <v>300</v>
+      </c>
+      <c r="I229">
+        <v>400</v>
+      </c>
+      <c r="J229">
+        <v>500</v>
+      </c>
+      <c r="K229">
+        <v>600</v>
+      </c>
+      <c r="L229">
+        <v>700</v>
+      </c>
+      <c r="M229">
+        <v>800</v>
+      </c>
+      <c r="N229">
+        <v>900</v>
+      </c>
+      <c r="O229">
+        <v>1000</v>
+      </c>
+      <c r="S229" t="s">
+        <v>128</v>
+      </c>
+      <c r="T229">
+        <v>400</v>
+      </c>
+      <c r="U229">
+        <v>700</v>
+      </c>
+      <c r="V229">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="230" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E230" t="s">
+        <v>127</v>
+      </c>
+      <c r="F230" t="e" cm="1">
+        <f t="array" ref="F230">SUM(VLOOKUP(F125:F227,$A$5:$B$9,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G230" t="e" cm="1">
+        <f t="array" ref="G230">SUM(VLOOKUP(G125:G227,$A$5:$B$9,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H230" t="e" cm="1">
+        <f t="array" ref="H230">SUM(VLOOKUP(H125:H227,$A$5:$B$9,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I230" t="e" cm="1">
+        <f t="array" ref="I230">SUM(VLOOKUP(I125:I227,$A$5:$B$9,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J230" t="e" cm="1">
+        <f t="array" ref="J230">SUM(VLOOKUP(J125:J227,$A$5:$B$9,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K230" t="e" cm="1">
+        <f t="array" ref="K230">SUM(VLOOKUP(K125:K227,$A$5:$B$9,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L230" t="e" cm="1">
+        <f t="array" ref="L230">SUM(VLOOKUP(L125:L227,$A$5:$B$9,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M230" t="e" cm="1">
+        <f t="array" ref="M230">SUM(VLOOKUP(M125:M227,$A$5:$B$9,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N230" t="e" cm="1">
+        <f t="array" ref="N230">SUM(VLOOKUP(N125:N227,$A$5:$B$9,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O230" t="e" cm="1">
+        <f t="array" ref="O230">SUM(VLOOKUP(O125:O227,$A$5:$B$9,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S230" t="s">
+        <v>127</v>
+      </c>
+      <c r="T230" t="e" cm="1">
+        <f t="array" ref="T230">SUM(VLOOKUP(T125:T227,$A$5:$B$9,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U230" t="e" cm="1">
+        <f t="array" ref="U230">SUM(VLOOKUP(U125:U227,$A$5:$B$9,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V230" t="e" cm="1">
+        <f t="array" ref="V230">SUM(VLOOKUP(V125:V227,$A$5:$B$9,2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="232" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="K232">
+        <v>2</v>
+      </c>
+      <c r="L232" t="s">
+        <v>45</v>
+      </c>
+      <c r="U232" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="234" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="K234">
+        <v>4</v>
+      </c>
+      <c r="L234" t="s">
+        <v>95</v>
+      </c>
+      <c r="U234" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="235" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="K235">
+        <v>7</v>
+      </c>
+      <c r="L235" t="s">
+        <v>96</v>
+      </c>
+      <c r="U235" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="236" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="K236">
+        <v>8</v>
+      </c>
+      <c r="L236" t="s">
+        <v>96</v>
+      </c>
+      <c r="U236" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="237" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="K237">
+        <v>9</v>
+      </c>
+      <c r="L237" t="s">
+        <v>44</v>
+      </c>
+      <c r="U237" t="s">
         <v>44</v>
       </c>
     </row>
